--- a/example-excel/test-club.xlsx
+++ b/example-excel/test-club.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d98eab7d3b021e39/เดสก์ท็อป/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsirikxm.dev/Co-operative-KU-SRC/example-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{12062161-505F-448C-AE26-6D1DB5649867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E2D03E9-307E-4224-80D0-04F840145352}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662591D9-506F-0C48-A6E2-7A02A853C230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28695" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{F6372C89-8448-48F8-B8B3-86298627BE88}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{F6372C89-8448-48F8-B8B3-86298627BE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,10 +160,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,19 +481,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DA5FCD-D90B-42FB-846C-581E2DAD7A05}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="242" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,9 +519,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>123</v>
+        <v>6430200318</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -549,7 +545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>124</v>
       </c>
